--- a/static/clear_history_excel/Issue_return_history_05_08_2025_to_05_08_2025.xlsx
+++ b/static/clear_history_excel/Issue_return_history_05_08_2025_to_05_08_2025.xlsx
@@ -435,7 +435,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,9 +443,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="25" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
-    <col width="18" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
     <col width="18" customWidth="1" min="4" max="4"/>
     <col width="17" customWidth="1" min="5" max="5"/>
     <col width="18" customWidth="1" min="6" max="6"/>
@@ -516,57 +516,110 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Pratheeksha G Poojari</t>
+          <t>ERROL D ALMEIDA</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>BCA24041</t>
+          <t>BCA23081</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
+          <t>III BCA [B]-Gen</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>151 ESSAYS</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>S C Gupta</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>BBHCENG80</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>ENGLISH</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>RETURNED</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-05 16:34:53</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-05 16:34:56</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-05 16:39:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>MAHANTHESH</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="inlineStr">
+        <is>
+          <t>BCA24025</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
           <t>II BCA (A)</t>
         </is>
       </c>
-      <c r="D2" s="2" t="inlineStr">
+      <c r="D3" s="2" t="inlineStr">
         <is>
           <t>INSIGHTS</t>
         </is>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E3" s="2" t="inlineStr">
         <is>
           <t>K Elango</t>
         </is>
       </c>
-      <c r="F2" s="2" t="inlineStr">
+      <c r="F3" s="2" t="inlineStr">
         <is>
           <t>BBHCENG324</t>
         </is>
       </c>
-      <c r="G2" s="2" t="inlineStr">
+      <c r="G3" s="2" t="inlineStr">
         <is>
           <t>ENGLISH</t>
         </is>
       </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>RETURNED</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-05 16:33:20</t>
-        </is>
-      </c>
-      <c r="J2" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-05 16:33:22</t>
-        </is>
-      </c>
-      <c r="K2" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-05 16:33:26</t>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>ISSUED</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-05 16:35:14</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr"/>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>2025-08-05 16:39:03</t>
         </is>
       </c>
     </row>
